--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,27 +564,27 @@
         <v>0.210947</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q2">
-        <v>0.4216295896547778</v>
+        <v>0.5456061416898889</v>
       </c>
       <c r="R2">
-        <v>3.794666306893</v>
+        <v>4.910455275209</v>
       </c>
       <c r="S2">
-        <v>0.02748578043016502</v>
+        <v>0.01359785043873947</v>
       </c>
       <c r="T2">
-        <v>0.02925508126773497</v>
+        <v>0.01794078308657599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>172.4328083333333</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>517.298425</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.7904037483947683</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.8412832210590593</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07031566666666667</v>
+        <v>0.1305455</v>
       </c>
       <c r="N3">
-        <v>0.210947</v>
+        <v>0.261091</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6499290139872732</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5531143679110581</v>
       </c>
       <c r="Q3">
-        <v>12.12472787316389</v>
+        <v>1.012952446396167</v>
       </c>
       <c r="R3">
-        <v>109.122550858475</v>
+        <v>6.077714678377</v>
       </c>
       <c r="S3">
-        <v>0.7904037483947683</v>
+        <v>0.02524527276212219</v>
       </c>
       <c r="T3">
-        <v>0.8412832210590593</v>
+        <v>0.02220546865732726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.08681966666666667</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H4">
-        <v>0.260459</v>
+        <v>517.298425</v>
       </c>
       <c r="I4">
-        <v>0.0003979671306811982</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J4">
-        <v>0.0004235848707133055</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,27 +688,27 @@
         <v>0.210947</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q4">
-        <v>0.006104782741444444</v>
+        <v>12.12472787316389</v>
       </c>
       <c r="R4">
-        <v>0.054943044673</v>
+        <v>109.122550858475</v>
       </c>
       <c r="S4">
-        <v>0.0003979671306811982</v>
+        <v>0.3021781164688703</v>
       </c>
       <c r="T4">
-        <v>0.0004235848707133055</v>
+        <v>0.3986889005363012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5815265</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H5">
-        <v>79.16305299999999</v>
+        <v>517.298425</v>
       </c>
       <c r="I5">
-        <v>0.1814352339046085</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J5">
-        <v>0.1287429943686935</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07031566666666667</v>
+        <v>0.1305455</v>
       </c>
       <c r="N5">
-        <v>0.210947</v>
+        <v>0.261091</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6499290139872732</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5531143679110581</v>
       </c>
       <c r="Q5">
-        <v>2.783201423531833</v>
+        <v>22.51032718027917</v>
       </c>
       <c r="R5">
-        <v>16.699208541191</v>
+        <v>135.061963081675</v>
       </c>
       <c r="S5">
-        <v>0.1814352339046085</v>
+        <v>0.5610128606259428</v>
       </c>
       <c r="T5">
-        <v>0.1287429943686935</v>
+        <v>0.4934608395944167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06048866666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H6">
-        <v>0.181466</v>
+        <v>0.157217</v>
       </c>
       <c r="I6">
-        <v>0.000277270139777064</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J6">
-        <v>0.0002951184337990267</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +812,332 @@
         <v>0.210947</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="Q6">
-        <v>0.004253300922444444</v>
+        <v>0.003684939388777777</v>
       </c>
       <c r="R6">
-        <v>0.038279708302</v>
+        <v>0.033164454499</v>
       </c>
       <c r="S6">
-        <v>0.000277270139777064</v>
+        <v>9.183777610938288E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002951184337990267</v>
+        <v>0.000121169270669277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.05240566666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.157217</v>
+      </c>
+      <c r="I7">
+        <v>0.0002623404388789996</v>
+      </c>
+      <c r="J7">
+        <v>0.0002711415672571033</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1305455</v>
+      </c>
+      <c r="N7">
+        <v>0.261091</v>
+      </c>
+      <c r="O7">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P7">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q7">
+        <v>0.006841323957833333</v>
+      </c>
+      <c r="R7">
+        <v>0.041047943747</v>
+      </c>
+      <c r="S7">
+        <v>0.0001705026627696167</v>
+      </c>
+      <c r="T7">
+        <v>0.0001499722965878263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>19.452549</v>
+      </c>
+      <c r="H8">
+        <v>38.905098</v>
+      </c>
+      <c r="I8">
+        <v>0.09737859599105524</v>
+      </c>
+      <c r="J8">
+        <v>0.06709700125311635</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07031566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.210947</v>
+      </c>
+      <c r="O8">
+        <v>0.3500709860127268</v>
+      </c>
+      <c r="P8">
+        <v>0.446885632088942</v>
+      </c>
+      <c r="Q8">
+        <v>1.367818951301</v>
+      </c>
+      <c r="R8">
+        <v>8.206913707805999</v>
+      </c>
+      <c r="S8">
+        <v>0.03408942111512368</v>
+      </c>
+      <c r="T8">
+        <v>0.02998468581627143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.452549</v>
+      </c>
+      <c r="H9">
+        <v>38.905098</v>
+      </c>
+      <c r="I9">
+        <v>0.09737859599105524</v>
+      </c>
+      <c r="J9">
+        <v>0.06709700125311635</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1305455</v>
+      </c>
+      <c r="N9">
+        <v>0.261091</v>
+      </c>
+      <c r="O9">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P9">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q9">
+        <v>2.5394427354795</v>
+      </c>
+      <c r="R9">
+        <v>10.157770941918</v>
+      </c>
+      <c r="S9">
+        <v>0.06328917487593157</v>
+      </c>
+      <c r="T9">
+        <v>0.03711231543684492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.194746</v>
+      </c>
+      <c r="I10">
+        <v>0.0003249632743909987</v>
+      </c>
+      <c r="J10">
+        <v>0.0003358653050055137</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07031566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.210947</v>
+      </c>
+      <c r="O10">
+        <v>0.3500709860127268</v>
+      </c>
+      <c r="P10">
+        <v>0.446885632088942</v>
+      </c>
+      <c r="Q10">
+        <v>0.004564564940222222</v>
+      </c>
+      <c r="R10">
+        <v>0.041081084462</v>
+      </c>
+      <c r="S10">
+        <v>0.0001137602138839812</v>
+      </c>
+      <c r="T10">
+        <v>0.0001500933791241343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.194746</v>
+      </c>
+      <c r="I11">
+        <v>0.0003249632743909987</v>
+      </c>
+      <c r="J11">
+        <v>0.0003358653050055137</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1305455</v>
+      </c>
+      <c r="N11">
+        <v>0.261091</v>
+      </c>
+      <c r="O11">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="P11">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="Q11">
+        <v>0.008474404647666668</v>
+      </c>
+      <c r="R11">
+        <v>0.050846427886</v>
+      </c>
+      <c r="S11">
+        <v>0.0002112030605070175</v>
+      </c>
+      <c r="T11">
+        <v>0.0001857719258813794</v>
       </c>
     </row>
   </sheetData>
